--- a/static/formatos/Lista Padres.xlsx
+++ b/static/formatos/Lista Padres.xlsx
@@ -762,11 +762,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1296,7 +1295,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,429 +1332,429 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="11">
+      <c r="A9" s="42"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>8</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>10</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>13</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>14</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>15</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>16</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>17</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>18</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>19</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>20</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
